--- a/biology/Zoologie/Aralobatrachus/Aralobatrachus.xlsx
+++ b/biology/Zoologie/Aralobatrachus/Aralobatrachus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aralobatrachus robustus
 Aralobatrachus est un genre fossile d'amphibiens préhistoriques attesté en Ouzbékistan. Il n'est connu que par son espèce-type, Aralobatrachus robustus. 
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce et le genre ont été publiés en 1981 par le paléontologue russe Lev Alexandrovich Nessov (d) (1947-1995) après la découverte de l'holotype en Ouzbékistan[1],[2],[3]. Il s'agit d"un amphibien carnivore[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce et le genre ont été publiés en 1981 par le paléontologue russe Lev Alexandrovich Nessov (d) (1947-1995) après la découverte de l'holotype en Ouzbékistan. Il s'agit d"un amphibien carnivore.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(ru) L. A. Nessov, « Amfibii i reptilii v ekosistemakh Mela sredney Azii [Amphibia and reptiles in Cretaceous ecosystems of central Asia]. The Problems of Herpetology. », Fifth Herpetological Conference. Abstracts,‎ 1981, p. 91-92. </t>
         </is>
